--- a/step2-Statistic.xlsx
+++ b/step2-Statistic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Serkan\git\IE306Assignment3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3CB506-988C-497B-897E-292699CA5D9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46DB214-FC2B-4EEF-B4CE-83BBB467775B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23900" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,7 +599,7 @@
   <dimension ref="A1:AB391"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="AA25" sqref="AA25:AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1361,12 +1361,12 @@
         <v>0</v>
       </c>
       <c r="S18" s="6">
-        <f>R18-1.96*Q18/SQRT(30)</f>
+        <f>R18-2.045*Q18/SQRT(30)</f>
         <v>0</v>
       </c>
       <c r="T18" s="6"/>
       <c r="U18" s="6">
-        <f>R18+1.96*Q18/SQRT(30)</f>
+        <f>R18+2.045*Q18/SQRT(30)</f>
         <v>0</v>
       </c>
       <c r="V18" s="6"/>
@@ -1379,12 +1379,12 @@
         <v>0</v>
       </c>
       <c r="Y18" s="6">
-        <f>X18-1.96*W18/SQRT(30)</f>
+        <f>X18-2.045*W18/SQRT(30)</f>
         <v>0</v>
       </c>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6">
-        <f>X18+1.96*W18/SQRT(30)</f>
+        <f>X18+2.045*W18/SQRT(30)</f>
         <v>0</v>
       </c>
       <c r="AB18" s="6"/>
@@ -1436,12 +1436,12 @@
         <v>0</v>
       </c>
       <c r="S19" s="6">
-        <f t="shared" ref="S19:S30" si="0">R19-1.96*Q19/SQRT(30)</f>
+        <f t="shared" ref="S19:S30" si="0">R19-2.045*Q19/SQRT(30)</f>
         <v>0</v>
       </c>
       <c r="T19" s="6"/>
       <c r="U19" s="6">
-        <f t="shared" ref="U19:U30" si="1">R19+1.96*Q19/SQRT(30)</f>
+        <f t="shared" ref="U19:U30" si="1">R19+2.045*Q19/SQRT(30)</f>
         <v>0</v>
       </c>
       <c r="V19" s="6"/>
@@ -1454,12 +1454,12 @@
         <v>0</v>
       </c>
       <c r="Y19" s="6">
-        <f t="shared" ref="Y19:Y30" si="2">X19-1.96*W19/SQRT(30)</f>
+        <f t="shared" ref="Y19:Y30" si="2">X19-2.045*W19/SQRT(30)</f>
         <v>0</v>
       </c>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6">
-        <f t="shared" ref="AA19:AA30" si="3">X19+1.96*W19/SQRT(30)</f>
+        <f t="shared" ref="AA19:AA30" si="3">X19+2.045*W19/SQRT(30)</f>
         <v>0</v>
       </c>
       <c r="AB19" s="6"/>
@@ -1511,13 +1511,13 @@
         <v>8.4635758504363974</v>
       </c>
       <c r="S20" s="6">
-        <f>R20-1.96*Q20/SQRT(30)</f>
-        <v>7.6743246895186568</v>
+        <f t="shared" si="0"/>
+        <v>7.6400969606013058</v>
       </c>
       <c r="T20" s="6"/>
       <c r="U20" s="6">
         <f t="shared" si="1"/>
-        <v>9.2528270113541389</v>
+        <v>9.2870547402714898</v>
       </c>
       <c r="V20" s="6"/>
       <c r="W20">
@@ -1529,13 +1529,13 @@
         <v>21.169823214225357</v>
       </c>
       <c r="Y20" s="6">
-        <f>X20-1.96*W20/SQRT(30)</f>
-        <v>19.332459456746385</v>
+        <f t="shared" si="2"/>
+        <v>19.252777865223063</v>
       </c>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6">
         <f t="shared" si="3"/>
-        <v>23.007186971704328</v>
+        <v>23.08686856322765</v>
       </c>
       <c r="AB20" s="6"/>
     </row>
@@ -1662,12 +1662,12 @@
       </c>
       <c r="S22" s="6">
         <f t="shared" si="0"/>
-        <v>0.69249567542751223</v>
+        <v>0.69163955958935297</v>
       </c>
       <c r="T22" s="6"/>
       <c r="U22" s="6">
         <f t="shared" si="1"/>
-        <v>0.73197772349320478</v>
+        <v>0.73283383933136403</v>
       </c>
       <c r="V22" s="6"/>
       <c r="W22">
@@ -1736,12 +1736,12 @@
       </c>
       <c r="S23" s="6">
         <f t="shared" si="0"/>
-        <v>8.393262910260983</v>
+        <v>8.359325808542085</v>
       </c>
       <c r="T23" s="6"/>
       <c r="U23" s="6">
         <f t="shared" si="1"/>
-        <v>9.9583621895325365</v>
+        <v>9.9922992912514346</v>
       </c>
       <c r="V23" s="6"/>
       <c r="W23">
@@ -1754,12 +1754,12 @@
       </c>
       <c r="Y23" s="6">
         <f t="shared" si="2"/>
-        <v>20.060089881887198</v>
+        <v>19.981484804115951</v>
       </c>
       <c r="Z23" s="6"/>
       <c r="AA23" s="6">
         <f t="shared" si="3"/>
-        <v>23.685171115572945</v>
+        <v>23.763776193344192</v>
       </c>
       <c r="AB23" s="6"/>
     </row>
@@ -1810,12 +1810,12 @@
       </c>
       <c r="S24" s="6">
         <f t="shared" si="0"/>
-        <v>7.7142117192466282</v>
+        <v>7.6799642914515527</v>
       </c>
       <c r="T24" s="6"/>
       <c r="U24" s="6">
         <f t="shared" si="1"/>
-        <v>9.2936225069724436</v>
+        <v>9.3278699347675182</v>
       </c>
       <c r="V24" s="6"/>
       <c r="W24">
@@ -1828,12 +1828,12 @@
       </c>
       <c r="Y24" s="6">
         <f t="shared" si="2"/>
-        <v>19.415860190965756</v>
+        <v>19.336461138305133</v>
       </c>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6">
         <f t="shared" si="3"/>
-        <v>23.077557678373307</v>
+        <v>23.156956731033929</v>
       </c>
       <c r="AB24" s="6"/>
     </row>
@@ -1884,12 +1884,12 @@
       </c>
       <c r="S25" s="6">
         <f t="shared" si="0"/>
-        <v>13.238333727524362</v>
+        <v>13.174986076218975</v>
       </c>
       <c r="T25" s="6"/>
       <c r="U25" s="6">
         <f t="shared" si="1"/>
-        <v>16.159778352431672</v>
+        <v>16.223126003737061</v>
       </c>
       <c r="V25" s="6"/>
       <c r="W25">
@@ -1902,12 +1902,12 @@
       </c>
       <c r="Y25" s="6">
         <f t="shared" si="2"/>
-        <v>33.091022612763879</v>
+        <v>32.953303355324216</v>
       </c>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6">
         <f t="shared" si="3"/>
-        <v>39.442310720569452</v>
+        <v>39.580029978009115</v>
       </c>
       <c r="AB25" s="6"/>
     </row>
@@ -1958,12 +1958,12 @@
       </c>
       <c r="S26" s="6">
         <f t="shared" si="0"/>
-        <v>0.98098209726899854</v>
+        <v>0.98072220454256298</v>
       </c>
       <c r="T26" s="6"/>
       <c r="U26" s="6">
         <f t="shared" si="1"/>
-        <v>0.99296773829990526</v>
+        <v>0.99322763102634082</v>
       </c>
       <c r="V26" s="6"/>
       <c r="W26">
@@ -2106,12 +2106,12 @@
       </c>
       <c r="S28" s="6">
         <f t="shared" si="0"/>
-        <v>0.98098209726899854</v>
+        <v>0.98072220454256298</v>
       </c>
       <c r="T28" s="6"/>
       <c r="U28" s="6">
         <f t="shared" si="1"/>
-        <v>0.99296773829990526</v>
+        <v>0.99322763102634082</v>
       </c>
       <c r="V28" s="6"/>
       <c r="W28">
@@ -2180,12 +2180,12 @@
       </c>
       <c r="S29" s="6">
         <f t="shared" si="0"/>
-        <v>12.253557874015222</v>
+        <v>12.190305590293201</v>
       </c>
       <c r="T29" s="6"/>
       <c r="U29" s="6">
         <f t="shared" si="1"/>
-        <v>15.17060437037193</v>
+        <v>15.23385665409395</v>
       </c>
       <c r="V29" s="6"/>
       <c r="W29">
@@ -2198,12 +2198,12 @@
       </c>
       <c r="Y29" s="6">
         <f t="shared" si="2"/>
-        <v>32.091022612763879</v>
+        <v>31.953303355324216</v>
       </c>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6">
         <f t="shared" si="3"/>
-        <v>38.442310720569452</v>
+        <v>38.580029978009115</v>
       </c>
       <c r="AB29" s="6"/>
     </row>
@@ -14921,23 +14921,23 @@
     <sortCondition ref="C2:C391"/>
   </sortState>
   <mergeCells count="54">
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="AA23:AB23"/>
     <mergeCell ref="Y30:Z30"/>
     <mergeCell ref="AA30:AB30"/>
     <mergeCell ref="AA20:AB20"/>
@@ -14954,27 +14954,27 @@
     <mergeCell ref="AA24:AB24"/>
     <mergeCell ref="Y25:Z25"/>
     <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U20:V20"/>
     <mergeCell ref="S30:T30"/>
     <mergeCell ref="S27:T27"/>
     <mergeCell ref="S28:T28"/>
     <mergeCell ref="S29:T29"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="S20:T20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
